--- a/medicine/Psychotrope/Ciney_(bière)/Ciney_(bière).xlsx
+++ b/medicine/Psychotrope/Ciney_(bière)/Ciney_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ciney_(bi%C3%A8re)</t>
+          <t>Ciney_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Ciney est une bière spéciale belge brassée par Alken-Maes, filiale d'Heineken.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ciney_(bi%C3%A8re)</t>
+          <t>Ciney_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au début, ces bières étaient brassées sous licence à la Brasserie de Mont-Saint-Guibert (Brasserie Grade devenue Interbrew et maintenant disparue) pour Demarche à Ciney[1]. En 2000, la Ciney est rachetée  par Alken-Maes, qui est lui-même racheté par le groupe anglais Scottish &amp; Newcastle quelques mois plus tard[2]. La Ciney est alors produite à la Brasserie de l'Union à Jumet (qui produit également les bières Grimbergen, Hapkin, Judas, Scotch Watneys et Red Barrel) jusqu'à sa fermeture en 2007[3]. Sa production est alors transférée à Alken, en province du Limbourg. La Ciney est toujours brassée selon sa recette originale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début, ces bières étaient brassées sous licence à la Brasserie de Mont-Saint-Guibert (Brasserie Grade devenue Interbrew et maintenant disparue) pour Demarche à Ciney. En 2000, la Ciney est rachetée  par Alken-Maes, qui est lui-même racheté par le groupe anglais Scottish &amp; Newcastle quelques mois plus tard. La Ciney est alors produite à la Brasserie de l'Union à Jumet (qui produit également les bières Grimbergen, Hapkin, Judas, Scotch Watneys et Red Barrel) jusqu'à sa fermeture en 2007. Sa production est alors transférée à Alken, en province du Limbourg. La Ciney est toujours brassée selon sa recette originale.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ciney_(bi%C3%A8re)</t>
+          <t>Ciney_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Variétés de bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe trois sortes de bières de Ciney :
 la Ciney Brune d'un volume d'alcool de 7 %
-la Ciney Blonde : La Ciney Blonde est une bière de haute fermentation. Elle a une couleur blonde dorée et une mousse blanche. Son arôme est malté, fruité et sa saveur mélange malt et houblon. Son volume d'alcool est de 7 %[4].
-la Ciney Spéciale : La Ciney Spéciale est une bière de haute fermentation. Elle a une couleur brun foncé et une saveur chocolatée, fruitée et épicée. Elle est un peu sèche en fin de bouche et son volume d'alcool est de 9 %[5].</t>
+la Ciney Blonde : La Ciney Blonde est une bière de haute fermentation. Elle a une couleur blonde dorée et une mousse blanche. Son arôme est malté, fruité et sa saveur mélange malt et houblon. Son volume d'alcool est de 7 %.
+la Ciney Spéciale : La Ciney Spéciale est une bière de haute fermentation. Elle a une couleur brun foncé et une saveur chocolatée, fruitée et épicée. Elle est un peu sèche en fin de bouche et son volume d'alcool est de 9 %.</t>
         </is>
       </c>
     </row>
